--- a/NPCC140/npcc.xlsx
+++ b/NPCC140/npcc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19663\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\NPCC140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F6F63-E423-4BD0-9E95-890EBABD48AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B260932-F4C8-4595-87DC-E162C268DB08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="11" r:id="rId1"/>
@@ -19,12 +19,17 @@
     <sheet name="PV" sheetId="3" r:id="rId4"/>
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
-    <sheet name="Area" sheetId="6" r:id="rId7"/>
-    <sheet name="GENCLS" sheetId="7" r:id="rId8"/>
+    <sheet name="GENCLS" sheetId="7" r:id="rId7"/>
+    <sheet name="Area" sheetId="6" r:id="rId8"/>
     <sheet name="GENROU" sheetId="8" r:id="rId9"/>
     <sheet name="TGOV1" sheetId="9" r:id="rId10"/>
     <sheet name="IEEEX1" sheetId="10" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bus!$A$1:$N$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Line!$A$1:$X$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PV!$A$1:$S$48</definedName>
+  </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -2337,7 +2342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,9 +3674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5235,9 +5240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,10 +5323,10 @@
         <v>8.4533276991093351E-2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-72.057000000000002</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>41.005000000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -5362,10 +5367,10 @@
         <v>7.0801026436401973E-2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-72.296999999999997</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>41.298000000000002</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -5406,10 +5411,10 @@
         <v>6.9933597798160788E-2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-72.010000000000005</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>41.478000000000002</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -5450,10 +5455,10 @@
         <v>7.1567225978027491E-2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-71.798000000000002</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>41.274999999999999</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5494,10 +5499,10 @@
         <v>4.1062361311670591E-2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-72.078000000000003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>41.76</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -5538,10 +5543,10 @@
         <v>3.2468360074850523E-2</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-71.616</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>41.969000000000001</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5582,10 +5587,10 @@
         <v>5.6991981394622838E-2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-71.248999999999995</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>42.206000000000003</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5626,10 +5631,10 @@
         <v>3.4862951808586742E-2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-71.671999999999997</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>42.189</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -5670,10 +5675,10 @@
         <v>1.8722146886143171E-2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-72.039000000000001</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>42.088000000000001</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -5714,10 +5719,10 @@
         <v>0.13993351810789739</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-71.088999999999999</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>41.648000000000003</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -5758,10 +5763,10 @@
         <v>0.1170679595775196</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-71.454999999999998</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>41.506999999999998</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -5802,10 +5807,10 @@
         <v>0.10372666277527499</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-71.129000000000005</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>41.975000000000001</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -5846,10 +5851,10 @@
         <v>0.18629120837011881</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-70.489999999999995</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>41.71</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5890,10 +5895,10 @@
         <v>0.181280368087643</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-70.162999999999997</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>41.720999999999997</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -5934,10 +5939,10 @@
         <v>6.0030599622344957E-2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-70.722999999999999</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>42.228999999999999</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5978,10 +5983,10 @@
         <v>7.8038906844422468E-2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-72.478999999999999</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -6022,10 +6027,10 @@
         <v>5.7175240966082237E-2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-71.441999999999993</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>42.826000000000001</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -6066,10 +6071,10 @@
         <v>2.6293385181294569E-2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-71.298000000000002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>42.527999999999999</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -6110,10 +6115,10 @@
         <v>0.11290360398226119</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-70.588999999999999</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>43.113999999999997</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -6154,10 +6159,10 @@
         <v>0.15965748398468529</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-69.832999999999998</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>43.863999999999997</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6198,10 +6203,10 @@
         <v>0.2069646333599916</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-72.403999999999996</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>41.005000000000003</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -6242,10 +6247,10 @@
         <v>0.22089236079090641</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-70.881</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>41.411000000000001</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -6286,10 +6291,10 @@
         <v>0.2051215656698856</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-71.343000000000004</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>41.348999999999997</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -6330,10 +6335,10 @@
         <v>0.27535710542864139</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-70.537999999999997</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>41.466999999999999</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -6374,10 +6379,10 @@
         <v>0.31946855694354609</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-70.186999999999998</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>41.399000000000001</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -6418,10 +6423,10 @@
         <v>0.27425056668287701</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-69.506</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>43.893000000000001</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -6462,10 +6467,10 @@
         <v>0.19319049490325241</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-72.91</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>43.000999999999998</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -6506,10 +6511,10 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-72.198999999999998</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>42.465000000000003</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6550,10 +6555,10 @@
         <v>5.6258943108785223E-2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-72.725999999999999</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>42.481999999999999</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6594,10 +6599,10 @@
         <v>1.258207857762712E-2</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-72.581999999999994</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>42.177999999999997</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6638,10 +6643,10 @@
         <v>6.9219758134095111E-3</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-72.581000000000003</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>41.838999999999999</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6682,10 +6687,10 @@
         <v>3.2201324699295382E-2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-72.772000000000006</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>41.619</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6726,10 +6731,10 @@
         <v>4.4395940182979758E-2</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>-72.555999999999997</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>41.371000000000002</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6770,10 +6775,10 @@
         <v>8.7022116504437263E-3</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-72.986999999999995</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>41.304000000000002</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -6814,10 +6819,10 @@
         <v>1.296779634231787E-3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-73.186999999999998</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>41.563000000000002</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -6858,10 +6863,10 @@
         <v>0.17388715337619501</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-72.643000000000001</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -6902,10 +6907,10 @@
         <v>8.0393356005362807E-2</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-73.923000000000002</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>42.494</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -6946,10 +6951,10 @@
         <v>0.1217402059851085</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-74.88</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -6990,10 +6995,10 @@
         <v>5.7140334381042351E-2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-74.001000000000005</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>42.042000000000002</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -7034,10 +7039,10 @@
         <v>1.0056587149991331E-2</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-74.066000000000003</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>42.646000000000001</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -7078,10 +7083,10 @@
         <v>-5.8833303755476851E-2</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-73.78</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>43.085999999999999</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -7122,10 +7127,10 @@
         <v>-4.4793875252434473E-2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-73.628</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>42.701999999999998</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -7166,10 +7171,10 @@
         <v>0.14561281949388691</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-75.239999999999995</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>42.893999999999998</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -7210,10 +7215,10 @@
         <v>0.1146611505390195</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-75.135999999999996</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>43.012999999999998</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -7254,10 +7259,10 @@
         <v>6.889163623472018E-2</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-75.239999999999995</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>43.131</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -7298,10 +7303,10 @@
         <v>0.1079486142358493</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-75.051000000000002</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>44.427999999999997</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -7342,10 +7347,10 @@
         <v>0.20384223932817369</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-75.210999999999999</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>44.654000000000003</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -7386,10 +7391,10 @@
         <v>0.26202104461415271</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-74.820999999999998</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>44.845999999999997</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7430,10 +7435,10 @@
         <v>-1.948136511076071E-2</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>-74.134</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>44.698999999999998</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7474,10 +7479,10 @@
         <v>0.23063478867553869</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>-76.332999999999998</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>43.305999999999997</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -7518,10 +7523,10 @@
         <v>0.14884691459783239</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-76.260999999999996</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>42.939</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -7562,10 +7567,10 @@
         <v>0.33882076768965919</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-77.481999999999999</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -7606,10 +7611,10 @@
         <v>0.314251767809335</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>-77.777000000000001</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>42.889000000000003</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -7650,10 +7655,10 @@
         <v>0.47005381947636482</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-78.352000000000004</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>43.125</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -7694,10 +7699,10 @@
         <v>0.45744207030145378</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>-78.590999999999994</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>42.996000000000002</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -7738,10 +7743,10 @@
         <v>0.46948484214021469</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>-78.742999999999995</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -7782,10 +7787,10 @@
         <v>0.44895627947825728</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>-79.125</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -7826,10 +7831,10 @@
         <v>0.42914679246812182</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>-79.132999999999996</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>42.713999999999999</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -7870,10 +7875,10 @@
         <v>0.38721351185970598</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>-78.796999999999997</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>42.561</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -7914,10 +7919,10 @@
         <v>0.52740533869689854</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>-79.314999999999998</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>42.33</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -7958,10 +7963,10 @@
         <v>0.46647414918052449</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>-78.828000000000003</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>42.234000000000002</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -8002,10 +8007,10 @@
         <v>0.41823848464315722</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>-78.254999999999995</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>42.707999999999998</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -8046,10 +8051,10 @@
         <v>0.30799301711168342</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>-77.823999999999998</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>42.42</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -8090,10 +8095,10 @@
         <v>0.25390351826312713</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>-77.591999999999999</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>42.408999999999999</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -8134,10 +8139,10 @@
         <v>0.27499058628572259</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>-76.977999999999994</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -8178,10 +8183,10 @@
         <v>0.36431304674428838</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>-76.203000000000003</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>41.862000000000002</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -8222,10 +8227,10 @@
         <v>0.29114360851293009</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>-77.040999999999997</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -8266,10 +8271,10 @@
         <v>0.2224107972401414</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>-76.713999999999999</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>42.15</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -8310,10 +8315,10 @@
         <v>0.25020342024889908</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>-75.397000000000006</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>42.009</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -8354,10 +8359,10 @@
         <v>0.2367748569840547</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>-75.988</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>42.014000000000003</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -8398,10 +8403,10 @@
         <v>0.1939793837251538</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>-75.789000000000001</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>42.33</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -8442,10 +8447,10 @@
         <v>0.17659764970454231</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>-76.093000000000004</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>42.634999999999998</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -8486,10 +8491,10 @@
         <v>2.8581511830659139E-2</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>-73.641000000000005</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -8530,10 +8535,10 @@
         <v>5.1993358416911077E-3</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>-73.769000000000005</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>41.304000000000002</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -8574,10 +8579,10 @@
         <v>2.2045253781940371E-2</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>-74.861000000000004</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>41.078000000000003</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -8618,10 +8623,10 @@
         <v>1.391725545540278E-2</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>-74.311000000000007</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -8662,10 +8667,10 @@
         <v>9.5260070573850494E-3</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>-74.12</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>41.36</v>
       </c>
       <c r="L78">
         <v>3</v>
@@ -8706,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>-73.424000000000007</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>40.773000000000003</v>
       </c>
       <c r="L79">
         <v>3</v>
@@ -8750,10 +8755,10 @@
         <v>0.14261957982671661</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>-73.263999999999996</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>40.378999999999998</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -8794,10 +8799,10 @@
         <v>1.1011282250832231E-2</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>-73.144999999999996</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>40.851999999999997</v>
       </c>
       <c r="L81">
         <v>3</v>
@@ -8838,10 +8843,10 @@
         <v>-5.7327084611005753E-2</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>-73.775000000000006</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>40.491</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -8882,10 +8887,10 @@
         <v>0.13208651779093089</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>-73.783000000000001</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="L83">
         <v>3</v>
@@ -8926,10 +8931,10 @@
         <v>0.40114996593688068</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>-82.905000000000001</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>42.11</v>
       </c>
       <c r="L84">
         <v>4</v>
@@ -8970,10 +8975,10 @@
         <v>0.40993246273291623</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-83.24</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>41.975000000000001</v>
       </c>
       <c r="L85">
         <v>4</v>
@@ -9014,10 +9019,10 @@
         <v>0.63614807774240523</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>-82.442999999999998</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>42.543999999999997</v>
       </c>
       <c r="L86">
         <v>4</v>
@@ -9058,10 +9063,10 @@
         <v>0.72828051829668194</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>-82.475999999999999</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="L87">
         <v>4</v>
@@ -9102,10 +9107,10 @@
         <v>0.58733819988113178</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>-82.61</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>42.436999999999998</v>
       </c>
       <c r="L88">
         <v>4</v>
@@ -9146,10 +9151,10 @@
         <v>0.57345061502301287</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>-81.917000000000002</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>42.81</v>
       </c>
       <c r="L89">
         <v>4</v>
@@ -9190,10 +9195,10 @@
         <v>0.52798653333781265</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>-82.204999999999998</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L90">
         <v>4</v>
@@ -9234,10 +9239,10 @@
         <v>0.52537901143533305</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>-82.468000000000004</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="L91">
         <v>4</v>
@@ -9278,10 +9283,10 @@
         <v>0.19571075034313221</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>-79.406000000000006</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>43.875999999999998</v>
       </c>
       <c r="L92">
         <v>4</v>
@@ -9322,10 +9327,10 @@
         <v>0.32606066552832857</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>-81.094999999999999</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>46.481999999999999</v>
       </c>
       <c r="L93">
         <v>4</v>
@@ -9366,10 +9371,10 @@
         <v>0.13169207337998021</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>-79.638999999999996</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>44.732999999999997</v>
       </c>
       <c r="L94">
         <v>4</v>
@@ -9410,10 +9415,10 @@
         <v>0.1357726531711429</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>-80.100999999999999</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L95">
         <v>4</v>
@@ -9454,10 +9459,10 @@
         <v>0.25540799207834619</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>-78.102000000000004</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>46.087000000000003</v>
       </c>
       <c r="L96">
         <v>4</v>
@@ -9498,10 +9503,10 @@
         <v>0.26530051827864998</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>-79.522999999999996</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>46.194000000000003</v>
       </c>
       <c r="L97">
         <v>4</v>
@@ -9542,10 +9547,10 @@
         <v>0.2451873439786674</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>-81.349000000000004</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>46.198999999999998</v>
       </c>
       <c r="L98">
         <v>4</v>
@@ -9586,10 +9591,10 @@
         <v>0.55801841377687911</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>-75.953000000000003</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>44.637</v>
       </c>
       <c r="L99">
         <v>4</v>
@@ -9630,10 +9635,10 @@
         <v>0.54668773627293188</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>-75.372</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>44.975999999999999</v>
       </c>
       <c r="L100">
         <v>4</v>
@@ -9674,10 +9679,10 @@
         <v>0.45933749786911959</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>-74.852999999999994</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>45.066000000000003</v>
       </c>
       <c r="L101">
         <v>4</v>
@@ -9718,10 +9723,10 @@
         <v>0.42495974759258742</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>-79.843000000000004</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>42.917000000000002</v>
       </c>
       <c r="L102">
         <v>4</v>
@@ -9762,10 +9767,10 @@
         <v>0.44548831025454461</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>-79.349000000000004</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>43.265999999999998</v>
       </c>
       <c r="L103">
         <v>4</v>
@@ -9806,10 +9811,10 @@
         <v>0.44185104409338838</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>-79.316999999999993</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>43.069000000000003</v>
       </c>
       <c r="L104">
         <v>4</v>
@@ -9850,10 +9855,10 @@
         <v>0.22992967565773301</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>-80.019000000000005</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>43.148000000000003</v>
       </c>
       <c r="L105">
         <v>4</v>
@@ -9894,10 +9899,10 @@
         <v>0.4210170488123321</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>-81.486000000000004</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>42.731000000000002</v>
       </c>
       <c r="L106">
         <v>4</v>
@@ -9938,10 +9943,10 @@
         <v>0.25457197936664089</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>-80.921000000000006</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>43.137</v>
       </c>
       <c r="L107">
         <v>4</v>
@@ -9982,10 +9987,10 @@
         <v>0.27808680037876049</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>-80.793000000000006</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>42.99</v>
       </c>
       <c r="L108">
         <v>4</v>
@@ -10026,10 +10031,10 @@
         <v>0.24287129206127089</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>-79.781000000000006</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>43.706000000000003</v>
       </c>
       <c r="L109">
         <v>4</v>
@@ -10070,10 +10075,10 @@
         <v>0.24244368639453229</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>-79.94</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>43.34</v>
       </c>
       <c r="L110">
         <v>4</v>
@@ -10114,10 +10119,10 @@
         <v>0.21711721361884259</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>-79.644000000000005</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>43.103000000000002</v>
       </c>
       <c r="L111">
         <v>4</v>
@@ -10158,10 +10163,10 @@
         <v>0.17520138630294679</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>-80.754000000000005</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>43.52</v>
       </c>
       <c r="L112">
         <v>4</v>
@@ -10202,10 +10207,10 @@
         <v>0.51671519702843316</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>-81.564999999999998</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>42.206000000000003</v>
       </c>
       <c r="L113">
         <v>4</v>
@@ -10246,10 +10251,10 @@
         <v>0.39177929318292309</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>-82.123000000000005</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>42.003</v>
       </c>
       <c r="L114">
         <v>4</v>
@@ -10290,10 +10295,10 @@
         <v>0.53475492017704662</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>-82.763000000000005</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>42.911000000000001</v>
       </c>
       <c r="L115">
         <v>5</v>
@@ -10334,10 +10339,10 @@
         <v>0.58377423754855939</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>-82.77</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>42.628999999999998</v>
       </c>
       <c r="L116">
         <v>5</v>
@@ -10378,10 +10383,10 @@
         <v>0.46862090416047752</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>-82.921000000000006</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>42.323999999999998</v>
       </c>
       <c r="L117">
         <v>5</v>
@@ -10422,10 +10427,10 @@
         <v>0.53869761895730184</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>-83.488</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>42.573</v>
       </c>
       <c r="L118">
         <v>5</v>
@@ -10466,10 +10471,10 @@
         <v>0.55482446124572948</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>-83.495000000000005</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>42.127000000000002</v>
       </c>
       <c r="L119">
         <v>5</v>
@@ -10510,10 +10515,10 @@
         <v>0.52780152843710126</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>-83.632999999999996</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>43.109000000000002</v>
       </c>
       <c r="L120">
         <v>5</v>
@@ -10554,10 +10559,10 @@
         <v>0.46547233018987971</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>-85.754999999999995</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>43.198999999999998</v>
       </c>
       <c r="L121">
         <v>5</v>
@@ -10598,10 +10603,10 @@
         <v>0.57408416954148689</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>-83.144999999999996</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>42.494</v>
       </c>
       <c r="L122">
         <v>5</v>
@@ -10642,10 +10647,10 @@
         <v>0.56411135819559122</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>-83.200999999999993</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>42.319000000000003</v>
       </c>
       <c r="L123">
         <v>5</v>
@@ -10686,10 +10691,10 @@
         <v>0.65645847424786319</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>-83.501999999999995</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>41.619</v>
       </c>
       <c r="L124">
         <v>5</v>
@@ -10730,10 +10735,10 @@
         <v>4.161039469679681E-2</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>-74.709000000000003</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>40.627000000000002</v>
       </c>
       <c r="L125">
         <v>6</v>
@@ -10774,10 +10779,10 @@
         <v>-5.9620447248126297E-2</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>-74.301000000000002</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>40.485999999999997</v>
       </c>
       <c r="L126">
         <v>6</v>
@@ -10818,10 +10823,10 @@
         <v>-9.41517864988341E-2</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>-74.046999999999997</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>40.892000000000003</v>
       </c>
       <c r="L127">
         <v>6</v>
@@ -10862,10 +10867,10 @@
         <v>0.1143539725906685</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>-75.706000000000003</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>40.779000000000003</v>
       </c>
       <c r="L128">
         <v>6</v>
@@ -10906,10 +10911,10 @@
         <v>4.7781878931848758E-2</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>-75.201999999999998</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>40.136000000000003</v>
       </c>
       <c r="L129">
         <v>6</v>
@@ -10950,10 +10955,10 @@
         <v>0.15603418045754511</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>-75.680000000000007</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>39.837000000000003</v>
       </c>
       <c r="L130">
         <v>6</v>
@@ -10994,10 +10999,10 @@
         <v>0.2128708275487404</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>-76.078999999999994</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="L131">
         <v>6</v>
@@ -11038,10 +11043,10 @@
         <v>0.23409228592373951</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>-76.518000000000001</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>39.960999999999999</v>
       </c>
       <c r="L132">
         <v>6</v>
@@ -11082,10 +11087,10 @@
         <v>0.34132531516627113</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>-77.388999999999996</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>40.637999999999998</v>
       </c>
       <c r="L133">
         <v>6</v>
@@ -11126,10 +11131,10 @@
         <v>0.59948569147501229</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>-79.096000000000004</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>40.435000000000002</v>
       </c>
       <c r="L134">
         <v>6</v>
@@ -11170,10 +11175,10 @@
         <v>0.44639239080707771</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>-78.825999999999993</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>41.072000000000003</v>
       </c>
       <c r="L135">
         <v>6</v>
@@ -11214,10 +11219,10 @@
         <v>0.61097519394089106</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>-79.408000000000001</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>40.784999999999997</v>
       </c>
       <c r="L136">
         <v>6</v>
@@ -11258,10 +11263,10 @@
         <v>0.34413704059123401</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>-80.295000000000002</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>41.664999999999999</v>
       </c>
       <c r="L137">
         <v>6</v>
@@ -11302,10 +11307,10 @@
         <v>0.3547294438215875</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>-79.953000000000003</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>42.133000000000003</v>
       </c>
       <c r="L138">
         <v>6</v>
@@ -11346,10 +11351,10 @@
         <v>0.2365392375350355</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>-76.266000000000005</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>41.715000000000003</v>
       </c>
       <c r="L139">
         <v>6</v>
@@ -11390,10 +11395,10 @@
         <v>0.51274282765089418</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>-82.212000000000003</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>38.94</v>
       </c>
       <c r="L140">
         <v>6</v>
@@ -11434,10 +11439,10 @@
         <v>0.52726745768599093</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>-79.283000000000001</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="L141">
         <v>6</v>
@@ -11450,6 +11455,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N141" xr:uid="{91A1FA27-C024-4E14-92FC-3EC340DE8160}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11460,7 +11466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14729,9 +14735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17428,6 +17434,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S48" xr:uid="{AF362CAD-41CE-4E42-8F4E-05F06BFD8184}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17436,9 +17443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17575,7 +17582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32800,17 +32807,1269 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X234" xr:uid="{8C945100-2036-4D5F-9A61-AFE09911C636}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>115</v>
+      </c>
+      <c r="J2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <v>74</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>115</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>10.71</v>
+      </c>
+      <c r="L3">
+        <v>21.42</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.02</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>115</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>3.77</v>
+      </c>
+      <c r="L4">
+        <v>7.54</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.02</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>115</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>8.5</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>115</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>11.77</v>
+      </c>
+      <c r="L6">
+        <v>23.54</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.02</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>345</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.02</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>220</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>98.7</v>
+      </c>
+      <c r="L8">
+        <v>197.4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.02</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.02</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>220</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>72</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.02</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11">
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <v>92</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.02</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12">
+        <v>119</v>
+      </c>
+      <c r="F12">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.02</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>220</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>2000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.02</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14">
+        <v>121</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>220</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>66</v>
+      </c>
+      <c r="L14">
+        <v>132</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.02</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>507</v>
+      </c>
+      <c r="E15">
+        <v>122</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>220</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>190</v>
+      </c>
+      <c r="L15">
+        <v>380</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.02</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16">
+        <v>123</v>
+      </c>
+      <c r="F16">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>230</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>33</v>
+      </c>
+      <c r="L16">
+        <v>66</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.02</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E17">
+        <v>130</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>48</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.02</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18">
+        <v>133</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>1000</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.02</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>511</v>
+      </c>
+      <c r="E19">
+        <v>134</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>230</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>44</v>
+      </c>
+      <c r="L19">
+        <v>88</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.02</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20">
+        <v>135</v>
+      </c>
+      <c r="F20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>115</v>
+      </c>
+      <c r="L20">
+        <v>230</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.02</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E21">
+        <v>137</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>230</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>3.5</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.02</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22">
+        <v>139</v>
+      </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>345</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>1000</v>
+      </c>
+      <c r="L22">
+        <v>2000</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.02</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32911,1257 +34170,6 @@
       </c>
       <c r="D7" t="s">
         <v>483</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E2">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>115</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <v>37</v>
-      </c>
-      <c r="L2">
-        <v>74</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.02</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>115</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>10.71</v>
-      </c>
-      <c r="L3">
-        <v>21.42</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.02</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E4">
-        <v>68</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>115</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>3.77</v>
-      </c>
-      <c r="L4">
-        <v>7.54</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.02</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E5">
-        <v>71</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>115</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>8.5</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.02</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E6">
-        <v>72</v>
-      </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>115</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
-      </c>
-      <c r="K6">
-        <v>11.77</v>
-      </c>
-      <c r="L6">
-        <v>23.54</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0.02</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E7">
-        <v>78</v>
-      </c>
-      <c r="F7">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>345</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
-      </c>
-      <c r="K7">
-        <v>1000</v>
-      </c>
-      <c r="L7">
-        <v>2000</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0.02</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>500</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E8">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>220</v>
-      </c>
-      <c r="J8">
-        <v>60</v>
-      </c>
-      <c r="K8">
-        <v>98.7</v>
-      </c>
-      <c r="L8">
-        <v>197.4</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0.02</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>27</v>
-      </c>
-      <c r="L9">
-        <v>54</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.02</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>502</v>
-      </c>
-      <c r="E10">
-        <v>97</v>
-      </c>
-      <c r="F10">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>220</v>
-      </c>
-      <c r="J10">
-        <v>60</v>
-      </c>
-      <c r="K10">
-        <v>36</v>
-      </c>
-      <c r="L10">
-        <v>72</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0.02</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E11">
-        <v>115</v>
-      </c>
-      <c r="F11">
-        <v>37</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11">
-        <v>60</v>
-      </c>
-      <c r="K11">
-        <v>46</v>
-      </c>
-      <c r="L11">
-        <v>92</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0.02</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>504</v>
-      </c>
-      <c r="E12">
-        <v>119</v>
-      </c>
-      <c r="F12">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12">
-        <v>220</v>
-      </c>
-      <c r="J12">
-        <v>60</v>
-      </c>
-      <c r="K12">
-        <v>30</v>
-      </c>
-      <c r="L12">
-        <v>60</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0.02</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>505</v>
-      </c>
-      <c r="E13">
-        <v>120</v>
-      </c>
-      <c r="F13">
-        <v>39</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>220</v>
-      </c>
-      <c r="J13">
-        <v>60</v>
-      </c>
-      <c r="K13">
-        <v>1000</v>
-      </c>
-      <c r="L13">
-        <v>2000</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0.02</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>506</v>
-      </c>
-      <c r="E14">
-        <v>121</v>
-      </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>220</v>
-      </c>
-      <c r="J14">
-        <v>60</v>
-      </c>
-      <c r="K14">
-        <v>66</v>
-      </c>
-      <c r="L14">
-        <v>132</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0.02</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>507</v>
-      </c>
-      <c r="E15">
-        <v>122</v>
-      </c>
-      <c r="F15">
-        <v>41</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>220</v>
-      </c>
-      <c r="J15">
-        <v>60</v>
-      </c>
-      <c r="K15">
-        <v>190</v>
-      </c>
-      <c r="L15">
-        <v>380</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0.02</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>508</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>508</v>
-      </c>
-      <c r="E16">
-        <v>123</v>
-      </c>
-      <c r="F16">
-        <v>42</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>230</v>
-      </c>
-      <c r="J16">
-        <v>60</v>
-      </c>
-      <c r="K16">
-        <v>33</v>
-      </c>
-      <c r="L16">
-        <v>66</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0.02</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>509</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>509</v>
-      </c>
-      <c r="E17">
-        <v>130</v>
-      </c>
-      <c r="F17">
-        <v>43</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>500</v>
-      </c>
-      <c r="J17">
-        <v>60</v>
-      </c>
-      <c r="K17">
-        <v>24</v>
-      </c>
-      <c r="L17">
-        <v>48</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0.02</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>510</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>510</v>
-      </c>
-      <c r="E18">
-        <v>133</v>
-      </c>
-      <c r="F18">
-        <v>44</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>500</v>
-      </c>
-      <c r="J18">
-        <v>60</v>
-      </c>
-      <c r="K18">
-        <v>1000</v>
-      </c>
-      <c r="L18">
-        <v>2000</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0.02</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>511</v>
-      </c>
-      <c r="E19">
-        <v>134</v>
-      </c>
-      <c r="F19">
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19">
-        <v>230</v>
-      </c>
-      <c r="J19">
-        <v>60</v>
-      </c>
-      <c r="K19">
-        <v>44</v>
-      </c>
-      <c r="L19">
-        <v>88</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0.02</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>512</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20">
-        <v>135</v>
-      </c>
-      <c r="F20">
-        <v>46</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>500</v>
-      </c>
-      <c r="J20">
-        <v>60</v>
-      </c>
-      <c r="K20">
-        <v>115</v>
-      </c>
-      <c r="L20">
-        <v>230</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0.02</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>513</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>513</v>
-      </c>
-      <c r="E21">
-        <v>137</v>
-      </c>
-      <c r="F21">
-        <v>47</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
-        <v>230</v>
-      </c>
-      <c r="J21">
-        <v>60</v>
-      </c>
-      <c r="K21">
-        <v>3.5</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0.02</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>514</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>514</v>
-      </c>
-      <c r="E22">
-        <v>139</v>
-      </c>
-      <c r="F22">
-        <v>48</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
-        <v>345</v>
-      </c>
-      <c r="J22">
-        <v>60</v>
-      </c>
-      <c r="K22">
-        <v>1000</v>
-      </c>
-      <c r="L22">
-        <v>2000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0.02</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -34174,7 +34182,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
